--- a/flows/FGDL_fund_flow_data.xlsx
+++ b/flows/FGDL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3315,6 +3315,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
